--- a/pred_ohlcv/54/2019-10-24 MXC ohlcv.xlsx
+++ b/pred_ohlcv/54/2019-10-24 MXC ohlcv.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H140"/>
+  <dimension ref="A1:I120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,7 +399,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>high_check</t>
         </is>
       </c>
     </row>
@@ -408,24 +413,27 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2.19</v>
+        <v>2.14</v>
       </c>
       <c r="C2" t="n">
-        <v>2.19</v>
+        <v>2.15</v>
       </c>
       <c r="D2" t="n">
-        <v>2.19</v>
+        <v>2.15</v>
       </c>
       <c r="E2" t="n">
-        <v>2.19</v>
+        <v>2.14</v>
       </c>
       <c r="F2" t="n">
-        <v>342669.8888</v>
+        <v>38988.267</v>
       </c>
       <c r="G2" t="n">
-        <v>2.300833333333335</v>
+        <v>2.302500000000001</v>
       </c>
       <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -434,24 +442,27 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2.2</v>
+        <v>2.19</v>
       </c>
       <c r="C3" t="n">
-        <v>2.15</v>
+        <v>2.19</v>
       </c>
       <c r="D3" t="n">
-        <v>2.2</v>
+        <v>2.19</v>
       </c>
       <c r="E3" t="n">
-        <v>2.15</v>
+        <v>2.19</v>
       </c>
       <c r="F3" t="n">
-        <v>201784</v>
+        <v>342669.8888</v>
       </c>
       <c r="G3" t="n">
-        <v>2.298500000000002</v>
+        <v>2.300833333333335</v>
       </c>
       <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -460,24 +471,27 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="C4" t="n">
-        <v>2.14</v>
+        <v>2.15</v>
       </c>
       <c r="D4" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="E4" t="n">
-        <v>2.14</v>
+        <v>2.15</v>
       </c>
       <c r="F4" t="n">
-        <v>97293</v>
+        <v>201784</v>
       </c>
       <c r="G4" t="n">
-        <v>2.296833333333334</v>
+        <v>2.298500000000002</v>
       </c>
       <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -498,12 +512,15 @@
         <v>2.14</v>
       </c>
       <c r="F5" t="n">
-        <v>3182.7102</v>
+        <v>97293</v>
       </c>
       <c r="G5" t="n">
-        <v>2.294500000000001</v>
+        <v>2.296833333333334</v>
       </c>
       <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -512,24 +529,27 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2.17</v>
+        <v>2.14</v>
       </c>
       <c r="C6" t="n">
-        <v>2.05</v>
+        <v>2.14</v>
       </c>
       <c r="D6" t="n">
-        <v>2.17</v>
+        <v>2.14</v>
       </c>
       <c r="E6" t="n">
-        <v>2.05</v>
+        <v>2.14</v>
       </c>
       <c r="F6" t="n">
-        <v>485993.718</v>
+        <v>3182.7102</v>
       </c>
       <c r="G6" t="n">
-        <v>2.290666666666668</v>
+        <v>2.294500000000001</v>
       </c>
       <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -538,24 +558,27 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2.03</v>
+        <v>2.17</v>
       </c>
       <c r="C7" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="D7" t="n">
-        <v>2.03</v>
+        <v>2.17</v>
       </c>
       <c r="E7" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="F7" t="n">
-        <v>200000</v>
+        <v>485993.718</v>
       </c>
       <c r="G7" t="n">
-        <v>2.287000000000001</v>
+        <v>2.290666666666668</v>
       </c>
       <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -564,24 +587,27 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>2.15</v>
+        <v>2.03</v>
       </c>
       <c r="C8" t="n">
-        <v>2.14</v>
+        <v>2.02</v>
       </c>
       <c r="D8" t="n">
-        <v>2.15</v>
+        <v>2.03</v>
       </c>
       <c r="E8" t="n">
         <v>2.02</v>
       </c>
       <c r="F8" t="n">
-        <v>483564.3537</v>
+        <v>200000</v>
       </c>
       <c r="G8" t="n">
-        <v>2.285166666666667</v>
+        <v>2.287000000000001</v>
       </c>
       <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -590,24 +616,27 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>2.01</v>
+        <v>2.15</v>
       </c>
       <c r="C9" t="n">
-        <v>2.01</v>
+        <v>2.14</v>
       </c>
       <c r="D9" t="n">
-        <v>2.01</v>
+        <v>2.15</v>
       </c>
       <c r="E9" t="n">
-        <v>2.01</v>
+        <v>2.02</v>
       </c>
       <c r="F9" t="n">
-        <v>12967.5</v>
+        <v>483564.3537</v>
       </c>
       <c r="G9" t="n">
-        <v>2.281166666666667</v>
+        <v>2.285166666666667</v>
       </c>
       <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -616,24 +645,27 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>2.04</v>
+        <v>2.01</v>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>2.01</v>
       </c>
       <c r="D10" t="n">
-        <v>2.06</v>
+        <v>2.01</v>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>2.01</v>
       </c>
       <c r="F10" t="n">
-        <v>964514.0056</v>
+        <v>12967.5</v>
       </c>
       <c r="G10" t="n">
-        <v>2.280833333333334</v>
+        <v>2.281166666666667</v>
       </c>
       <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -645,21 +677,24 @@
         <v>2.04</v>
       </c>
       <c r="C11" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>2.06</v>
       </c>
       <c r="E11" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="F11" t="n">
-        <v>120000</v>
+        <v>964514.0056</v>
       </c>
       <c r="G11" t="n">
-        <v>2.280166666666667</v>
+        <v>2.280833333333334</v>
       </c>
       <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -668,7 +703,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="C12" t="n">
         <v>2.06</v>
@@ -677,15 +712,18 @@
         <v>2.06</v>
       </c>
       <c r="E12" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="F12" t="n">
-        <v>917747.8874</v>
+        <v>120000</v>
       </c>
       <c r="G12" t="n">
-        <v>2.277333333333334</v>
+        <v>2.280166666666667</v>
       </c>
       <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -694,24 +732,27 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>2.05</v>
+        <v>2.06</v>
       </c>
       <c r="D13" t="n">
-        <v>2.05</v>
+        <v>2.06</v>
       </c>
       <c r="E13" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="F13" t="n">
-        <v>2935</v>
+        <v>917747.8874</v>
       </c>
       <c r="G13" t="n">
-        <v>2.274333333333334</v>
+        <v>2.277333333333334</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -732,12 +773,15 @@
         <v>2.05</v>
       </c>
       <c r="F14" t="n">
-        <v>140000</v>
+        <v>2935</v>
       </c>
       <c r="G14" t="n">
-        <v>2.269333333333335</v>
+        <v>2.274333333333334</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -758,12 +802,15 @@
         <v>2.05</v>
       </c>
       <c r="F15" t="n">
-        <v>616943.1431</v>
+        <v>140000</v>
       </c>
       <c r="G15" t="n">
-        <v>2.267500000000001</v>
+        <v>2.269333333333335</v>
       </c>
       <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -772,24 +819,27 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="C16" t="n">
-        <v>2.06</v>
+        <v>2.05</v>
       </c>
       <c r="D16" t="n">
-        <v>2.06</v>
+        <v>2.05</v>
       </c>
       <c r="E16" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="F16" t="n">
-        <v>1549820.1913</v>
+        <v>616943.1431</v>
       </c>
       <c r="G16" t="n">
-        <v>2.264166666666668</v>
+        <v>2.267500000000001</v>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -798,24 +848,27 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>2.09</v>
+        <v>2.03</v>
       </c>
       <c r="C17" t="n">
-        <v>2.09</v>
+        <v>2.06</v>
       </c>
       <c r="D17" t="n">
-        <v>2.09</v>
+        <v>2.06</v>
       </c>
       <c r="E17" t="n">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="F17" t="n">
-        <v>502015.6997</v>
+        <v>1549820.1913</v>
       </c>
       <c r="G17" t="n">
-        <v>2.255500000000002</v>
+        <v>2.264166666666668</v>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -836,12 +889,15 @@
         <v>2.09</v>
       </c>
       <c r="F18" t="n">
-        <v>14152</v>
+        <v>502015.6997</v>
       </c>
       <c r="G18" t="n">
-        <v>2.253000000000001</v>
+        <v>2.255500000000002</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -850,24 +906,27 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>2.1</v>
+        <v>2.09</v>
       </c>
       <c r="C19" t="n">
-        <v>2.03</v>
+        <v>2.09</v>
       </c>
       <c r="D19" t="n">
-        <v>2.1</v>
+        <v>2.09</v>
       </c>
       <c r="E19" t="n">
-        <v>2.03</v>
+        <v>2.09</v>
       </c>
       <c r="F19" t="n">
-        <v>88.5</v>
+        <v>14152</v>
       </c>
       <c r="G19" t="n">
-        <v>2.247166666666668</v>
+        <v>2.253000000000001</v>
       </c>
       <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -876,24 +935,27 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>2.03</v>
+        <v>2.1</v>
       </c>
       <c r="C20" t="n">
         <v>2.03</v>
       </c>
       <c r="D20" t="n">
-        <v>2.03</v>
+        <v>2.1</v>
       </c>
       <c r="E20" t="n">
         <v>2.03</v>
       </c>
       <c r="F20" t="n">
-        <v>396943.1431</v>
+        <v>88.5</v>
       </c>
       <c r="G20" t="n">
-        <v>2.243500000000002</v>
+        <v>2.247166666666668</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -905,21 +967,24 @@
         <v>2.03</v>
       </c>
       <c r="C21" t="n">
-        <v>2.09</v>
+        <v>2.03</v>
       </c>
       <c r="D21" t="n">
-        <v>2.09</v>
+        <v>2.03</v>
       </c>
       <c r="E21" t="n">
         <v>2.03</v>
       </c>
       <c r="F21" t="n">
-        <v>220193.2251</v>
+        <v>396943.1431</v>
       </c>
       <c r="G21" t="n">
-        <v>2.239333333333335</v>
+        <v>2.243500000000002</v>
       </c>
       <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -928,24 +993,27 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>2.02</v>
+        <v>2.03</v>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="D22" t="n">
-        <v>2.02</v>
+        <v>2.09</v>
       </c>
       <c r="E22" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="F22" t="n">
-        <v>1122431.8959</v>
+        <v>220193.2251</v>
       </c>
       <c r="G22" t="n">
-        <v>2.232833333333335</v>
+        <v>2.239333333333335</v>
       </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -954,24 +1022,27 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="C23" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="E23" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="F23" t="n">
-        <v>32.5</v>
+        <v>1122431.8959</v>
       </c>
       <c r="G23" t="n">
-        <v>2.226166666666669</v>
+        <v>2.232833333333335</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -980,24 +1051,27 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>2.09</v>
+        <v>1.99</v>
       </c>
       <c r="C24" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="D24" t="n">
         <v>1.99</v>
       </c>
-      <c r="D24" t="n">
-        <v>2.09</v>
-      </c>
       <c r="E24" t="n">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="F24" t="n">
-        <v>239558.4276</v>
+        <v>32.5</v>
       </c>
       <c r="G24" t="n">
-        <v>2.219666666666669</v>
+        <v>2.226166666666669</v>
       </c>
       <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1006,24 +1080,27 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>2.03</v>
+        <v>2.09</v>
       </c>
       <c r="C25" t="n">
-        <v>2.03</v>
+        <v>1.99</v>
       </c>
       <c r="D25" t="n">
-        <v>2.04</v>
+        <v>2.09</v>
       </c>
       <c r="E25" t="n">
-        <v>2.03</v>
+        <v>1.99</v>
       </c>
       <c r="F25" t="n">
-        <v>491056.3471</v>
+        <v>239558.4276</v>
       </c>
       <c r="G25" t="n">
-        <v>2.212833333333335</v>
+        <v>2.219666666666669</v>
       </c>
       <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1032,24 +1109,27 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>2.04</v>
+        <v>2.03</v>
       </c>
       <c r="C26" t="n">
-        <v>2.04</v>
+        <v>2.03</v>
       </c>
       <c r="D26" t="n">
         <v>2.04</v>
       </c>
       <c r="E26" t="n">
-        <v>2.04</v>
+        <v>2.03</v>
       </c>
       <c r="F26" t="n">
-        <v>133750.9487</v>
+        <v>491056.3471</v>
       </c>
       <c r="G26" t="n">
-        <v>2.205333333333335</v>
+        <v>2.212833333333335</v>
       </c>
       <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1058,24 +1138,27 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="C27" t="n">
-        <v>1.99</v>
+        <v>2.04</v>
       </c>
       <c r="D27" t="n">
         <v>2.04</v>
       </c>
       <c r="E27" t="n">
-        <v>1.99</v>
+        <v>2.04</v>
       </c>
       <c r="F27" t="n">
-        <v>1647079.5576</v>
+        <v>133750.9487</v>
       </c>
       <c r="G27" t="n">
-        <v>2.197833333333335</v>
+        <v>2.205333333333335</v>
       </c>
       <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1084,24 +1167,27 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="D28" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="E28" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="F28" t="n">
-        <v>22964.146</v>
+        <v>1647079.5576</v>
       </c>
       <c r="G28" t="n">
-        <v>2.190166666666669</v>
+        <v>2.197833333333335</v>
       </c>
       <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1122,12 +1208,15 @@
         <v>2</v>
       </c>
       <c r="F29" t="n">
-        <v>30000</v>
+        <v>22964.146</v>
       </c>
       <c r="G29" t="n">
-        <v>2.183500000000002</v>
+        <v>2.190166666666669</v>
       </c>
       <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1148,12 +1237,15 @@
         <v>2</v>
       </c>
       <c r="F30" t="n">
-        <v>11999</v>
+        <v>30000</v>
       </c>
       <c r="G30" t="n">
-        <v>2.176333333333335</v>
+        <v>2.183500000000002</v>
       </c>
       <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1162,24 +1254,27 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="C31" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="E31" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="F31" t="n">
-        <v>723.6453</v>
+        <v>11999</v>
       </c>
       <c r="G31" t="n">
-        <v>2.169166666666668</v>
+        <v>2.176333333333335</v>
       </c>
       <c r="H31" t="n">
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1188,24 +1283,27 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="D32" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="E32" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="F32" t="n">
-        <v>55</v>
+        <v>723.6453</v>
       </c>
       <c r="G32" t="n">
-        <v>2.161333333333335</v>
+        <v>2.169166666666668</v>
       </c>
       <c r="H32" t="n">
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1226,12 +1324,15 @@
         <v>2</v>
       </c>
       <c r="F33" t="n">
-        <v>48422.3301</v>
+        <v>55</v>
       </c>
       <c r="G33" t="n">
-        <v>2.152500000000002</v>
+        <v>2.161333333333335</v>
       </c>
       <c r="H33" t="n">
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1240,24 +1341,27 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="C34" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="E34" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="F34" t="n">
-        <v>41139</v>
+        <v>48422.3301</v>
       </c>
       <c r="G34" t="n">
-        <v>2.145000000000001</v>
+        <v>2.152500000000002</v>
       </c>
       <c r="H34" t="n">
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1266,24 +1370,27 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>2.09</v>
+        <v>2.07</v>
       </c>
       <c r="C35" t="n">
-        <v>2.09</v>
+        <v>2.07</v>
       </c>
       <c r="D35" t="n">
-        <v>2.09</v>
+        <v>2.07</v>
       </c>
       <c r="E35" t="n">
-        <v>2.09</v>
+        <v>2.07</v>
       </c>
       <c r="F35" t="n">
-        <v>20000</v>
+        <v>41139</v>
       </c>
       <c r="G35" t="n">
-        <v>2.137833333333334</v>
+        <v>2.145000000000001</v>
       </c>
       <c r="H35" t="n">
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1295,21 +1402,24 @@
         <v>2.09</v>
       </c>
       <c r="C36" t="n">
-        <v>2.19</v>
+        <v>2.09</v>
       </c>
       <c r="D36" t="n">
-        <v>2.19</v>
+        <v>2.09</v>
       </c>
       <c r="E36" t="n">
         <v>2.09</v>
       </c>
       <c r="F36" t="n">
-        <v>7666</v>
+        <v>20000</v>
       </c>
       <c r="G36" t="n">
-        <v>2.134166666666668</v>
+        <v>2.137833333333334</v>
       </c>
       <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1318,24 +1428,27 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>2.32</v>
+        <v>2.09</v>
       </c>
       <c r="C37" t="n">
-        <v>2.32</v>
+        <v>2.19</v>
       </c>
       <c r="D37" t="n">
-        <v>2.32</v>
+        <v>2.19</v>
       </c>
       <c r="E37" t="n">
-        <v>2.32</v>
+        <v>2.09</v>
       </c>
       <c r="F37" t="n">
-        <v>11</v>
+        <v>7666</v>
       </c>
       <c r="G37" t="n">
-        <v>2.132833333333334</v>
+        <v>2.134166666666668</v>
       </c>
       <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1344,24 +1457,27 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="C38" t="n">
-        <v>2.25</v>
+        <v>2.32</v>
       </c>
       <c r="D38" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="E38" t="n">
-        <v>2.25</v>
+        <v>2.32</v>
       </c>
       <c r="F38" t="n">
-        <v>200</v>
+        <v>11</v>
       </c>
       <c r="G38" t="n">
-        <v>2.130333333333334</v>
+        <v>2.132833333333334</v>
       </c>
       <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1370,24 +1486,27 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>2.08</v>
+        <v>2.3</v>
       </c>
       <c r="C39" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="D39" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="E39" t="n">
-        <v>2.08</v>
+        <v>2.25</v>
       </c>
       <c r="F39" t="n">
-        <v>897306.4</v>
+        <v>200</v>
       </c>
       <c r="G39" t="n">
-        <v>2.129166666666668</v>
+        <v>2.130333333333334</v>
       </c>
       <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1396,24 +1515,27 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="C40" t="n">
         <v>2.27</v>
       </c>
-      <c r="C40" t="n">
-        <v>2.13</v>
-      </c>
       <c r="D40" t="n">
-        <v>2.29</v>
+        <v>2.27</v>
       </c>
       <c r="E40" t="n">
-        <v>2.13</v>
+        <v>2.08</v>
       </c>
       <c r="F40" t="n">
-        <v>75638</v>
+        <v>897306.4</v>
       </c>
       <c r="G40" t="n">
-        <v>2.124833333333334</v>
+        <v>2.129166666666668</v>
       </c>
       <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1422,24 +1544,27 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>2.29</v>
+        <v>2.27</v>
       </c>
       <c r="C41" t="n">
-        <v>2.19</v>
+        <v>2.13</v>
       </c>
       <c r="D41" t="n">
         <v>2.29</v>
       </c>
       <c r="E41" t="n">
-        <v>2.17</v>
+        <v>2.13</v>
       </c>
       <c r="F41" t="n">
-        <v>865818</v>
+        <v>75638</v>
       </c>
       <c r="G41" t="n">
-        <v>2.121333333333334</v>
+        <v>2.124833333333334</v>
       </c>
       <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1448,24 +1573,27 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="C42" t="n">
         <v>2.19</v>
       </c>
-      <c r="C42" t="n">
-        <v>2.17</v>
-      </c>
       <c r="D42" t="n">
-        <v>2.27</v>
+        <v>2.29</v>
       </c>
       <c r="E42" t="n">
         <v>2.17</v>
       </c>
       <c r="F42" t="n">
-        <v>1687623.2653</v>
+        <v>865818</v>
       </c>
       <c r="G42" t="n">
-        <v>2.120166666666667</v>
+        <v>2.121333333333334</v>
       </c>
       <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1474,25 +1602,28 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>2.2</v>
+        <v>2.19</v>
       </c>
       <c r="C43" t="n">
-        <v>2.2</v>
+        <v>2.17</v>
       </c>
       <c r="D43" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="E43" t="n">
-        <v>2.2</v>
+        <v>2.17</v>
       </c>
       <c r="F43" t="n">
-        <v>11</v>
+        <v>1687623.2653</v>
       </c>
       <c r="G43" t="n">
-        <v>2.119166666666668</v>
+        <v>2.120166666666667</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -1500,25 +1631,28 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="C44" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="D44" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="E44" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="F44" t="n">
-        <v>120000</v>
+        <v>11</v>
       </c>
       <c r="G44" t="n">
-        <v>2.114666666666667</v>
+        <v>2.119166666666668</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1526,25 +1660,28 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="C45" t="n">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="D45" t="n">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="E45" t="n">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="F45" t="n">
-        <v>11</v>
+        <v>120000</v>
       </c>
       <c r="G45" t="n">
-        <v>2.111666666666667</v>
+        <v>2.114666666666667</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1552,24 +1689,27 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>2.12</v>
+        <v>2.19</v>
       </c>
       <c r="C46" t="n">
-        <v>2.21</v>
+        <v>2.19</v>
       </c>
       <c r="D46" t="n">
-        <v>2.21</v>
+        <v>2.19</v>
       </c>
       <c r="E46" t="n">
-        <v>2.09</v>
+        <v>2.19</v>
       </c>
       <c r="F46" t="n">
-        <v>247810</v>
+        <v>11</v>
       </c>
       <c r="G46" t="n">
-        <v>2.109000000000001</v>
+        <v>2.111666666666667</v>
       </c>
       <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1578,25 +1718,28 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="C47" t="n">
         <v>2.21</v>
       </c>
-      <c r="C47" t="n">
-        <v>2.28</v>
-      </c>
       <c r="D47" t="n">
-        <v>2.28</v>
+        <v>2.21</v>
       </c>
       <c r="E47" t="n">
-        <v>2.21</v>
+        <v>2.09</v>
       </c>
       <c r="F47" t="n">
-        <v>19599</v>
+        <v>247810</v>
       </c>
       <c r="G47" t="n">
-        <v>2.107666666666668</v>
+        <v>2.109000000000001</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1604,25 +1747,28 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="C48" t="n">
-        <v>2.17</v>
+        <v>2.28</v>
       </c>
       <c r="D48" t="n">
-        <v>2.17</v>
+        <v>2.28</v>
       </c>
       <c r="E48" t="n">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="F48" t="n">
-        <v>120000</v>
+        <v>19599</v>
       </c>
       <c r="G48" t="n">
-        <v>2.104500000000001</v>
+        <v>2.107666666666668</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -1630,25 +1776,28 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>2.18</v>
+        <v>2.17</v>
       </c>
       <c r="C49" t="n">
-        <v>2.05</v>
+        <v>2.17</v>
       </c>
       <c r="D49" t="n">
-        <v>2.19</v>
+        <v>2.17</v>
       </c>
       <c r="E49" t="n">
-        <v>2.04</v>
+        <v>2.17</v>
       </c>
       <c r="F49" t="n">
-        <v>97922</v>
+        <v>120000</v>
       </c>
       <c r="G49" t="n">
-        <v>2.100833333333334</v>
+        <v>2.104500000000001</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -1656,24 +1805,27 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>2.21</v>
+        <v>2.18</v>
       </c>
       <c r="C50" t="n">
-        <v>2.21</v>
+        <v>2.05</v>
       </c>
       <c r="D50" t="n">
-        <v>2.21</v>
+        <v>2.19</v>
       </c>
       <c r="E50" t="n">
-        <v>2.21</v>
+        <v>2.04</v>
       </c>
       <c r="F50" t="n">
-        <v>11</v>
+        <v>97922</v>
       </c>
       <c r="G50" t="n">
-        <v>2.101000000000001</v>
+        <v>2.100833333333334</v>
       </c>
       <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1682,24 +1834,27 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>2.09</v>
+        <v>2.21</v>
       </c>
       <c r="C51" t="n">
-        <v>2.14</v>
+        <v>2.21</v>
       </c>
       <c r="D51" t="n">
-        <v>2.14</v>
+        <v>2.21</v>
       </c>
       <c r="E51" t="n">
-        <v>2.09</v>
+        <v>2.21</v>
       </c>
       <c r="F51" t="n">
-        <v>1162.4292</v>
+        <v>11</v>
       </c>
       <c r="G51" t="n">
-        <v>2.100666666666668</v>
+        <v>2.101000000000001</v>
       </c>
       <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1708,24 +1863,27 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>2.19</v>
+        <v>2.09</v>
       </c>
       <c r="C52" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="D52" t="n">
-        <v>2.2</v>
+        <v>2.14</v>
       </c>
       <c r="E52" t="n">
-        <v>2.18</v>
+        <v>2.09</v>
       </c>
       <c r="F52" t="n">
-        <v>40000</v>
+        <v>1162.4292</v>
       </c>
       <c r="G52" t="n">
-        <v>2.101666666666667</v>
+        <v>2.100666666666668</v>
       </c>
       <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1734,24 +1892,27 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>2.15</v>
+        <v>2.19</v>
       </c>
       <c r="C53" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="D53" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="E53" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="F53" t="n">
-        <v>120083.5581</v>
+        <v>40000</v>
       </c>
       <c r="G53" t="n">
-        <v>2.102166666666668</v>
+        <v>2.101666666666667</v>
       </c>
       <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1760,24 +1921,27 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>2.19</v>
+        <v>2.15</v>
       </c>
       <c r="C54" t="n">
-        <v>2.19</v>
+        <v>2.15</v>
       </c>
       <c r="D54" t="n">
-        <v>2.19</v>
+        <v>2.15</v>
       </c>
       <c r="E54" t="n">
-        <v>2.19</v>
+        <v>2.14</v>
       </c>
       <c r="F54" t="n">
-        <v>555</v>
+        <v>120083.5581</v>
       </c>
       <c r="G54" t="n">
-        <v>2.103333333333334</v>
+        <v>2.102166666666668</v>
       </c>
       <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1786,24 +1950,27 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>2.08</v>
+        <v>2.19</v>
       </c>
       <c r="C55" t="n">
-        <v>2.17</v>
+        <v>2.19</v>
       </c>
       <c r="D55" t="n">
-        <v>2.17</v>
+        <v>2.19</v>
       </c>
       <c r="E55" t="n">
-        <v>2.08</v>
+        <v>2.19</v>
       </c>
       <c r="F55" t="n">
-        <v>10641.0384</v>
+        <v>555</v>
       </c>
       <c r="G55" t="n">
-        <v>2.103833333333334</v>
+        <v>2.103333333333334</v>
       </c>
       <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1812,24 +1979,27 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>2.14</v>
+        <v>2.08</v>
       </c>
       <c r="C56" t="n">
-        <v>2.19</v>
+        <v>2.17</v>
       </c>
       <c r="D56" t="n">
-        <v>2.19</v>
+        <v>2.17</v>
       </c>
       <c r="E56" t="n">
-        <v>2.14</v>
+        <v>2.08</v>
       </c>
       <c r="F56" t="n">
-        <v>50000</v>
+        <v>10641.0384</v>
       </c>
       <c r="G56" t="n">
-        <v>2.105833333333334</v>
+        <v>2.103833333333334</v>
       </c>
       <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1838,24 +2008,27 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>2.13</v>
+        <v>2.14</v>
       </c>
       <c r="C57" t="n">
-        <v>2.18</v>
+        <v>2.19</v>
       </c>
       <c r="D57" t="n">
-        <v>2.18</v>
+        <v>2.19</v>
       </c>
       <c r="E57" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="F57" t="n">
-        <v>122408.6409</v>
+        <v>50000</v>
       </c>
       <c r="G57" t="n">
-        <v>2.107166666666668</v>
+        <v>2.105833333333334</v>
       </c>
       <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1864,24 +2037,27 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>2.15</v>
+        <v>2.13</v>
       </c>
       <c r="C58" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="D58" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="E58" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="F58" t="n">
-        <v>146699.42</v>
+        <v>122408.6409</v>
       </c>
       <c r="G58" t="n">
-        <v>2.106666666666667</v>
+        <v>2.107166666666668</v>
       </c>
       <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1890,24 +2066,27 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>2.17</v>
+        <v>2.15</v>
       </c>
       <c r="C59" t="n">
-        <v>2.17</v>
+        <v>2.14</v>
       </c>
       <c r="D59" t="n">
-        <v>2.17</v>
+        <v>2.15</v>
       </c>
       <c r="E59" t="n">
-        <v>2.17</v>
+        <v>2.14</v>
       </c>
       <c r="F59" t="n">
-        <v>11</v>
+        <v>146699.42</v>
       </c>
       <c r="G59" t="n">
-        <v>2.107833333333334</v>
+        <v>2.106666666666667</v>
       </c>
       <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1916,24 +2095,27 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>2.1</v>
+        <v>2.17</v>
       </c>
       <c r="C60" t="n">
-        <v>2.11</v>
+        <v>2.17</v>
       </c>
       <c r="D60" t="n">
-        <v>2.18</v>
+        <v>2.17</v>
       </c>
       <c r="E60" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="F60" t="n">
-        <v>477993.966</v>
+        <v>11</v>
       </c>
       <c r="G60" t="n">
-        <v>2.107166666666668</v>
+        <v>2.107833333333334</v>
       </c>
       <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1942,24 +2124,27 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>2.17</v>
+        <v>2.1</v>
       </c>
       <c r="C61" t="n">
-        <v>2.17</v>
+        <v>2.11</v>
       </c>
       <c r="D61" t="n">
-        <v>2.17</v>
+        <v>2.18</v>
       </c>
       <c r="E61" t="n">
-        <v>2.17</v>
+        <v>2.09</v>
       </c>
       <c r="F61" t="n">
-        <v>44</v>
+        <v>477993.966</v>
       </c>
       <c r="G61" t="n">
-        <v>2.107500000000001</v>
+        <v>2.107166666666668</v>
       </c>
       <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1968,24 +2153,27 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>2.06</v>
+        <v>2.17</v>
       </c>
       <c r="C62" t="n">
-        <v>2.03</v>
+        <v>2.17</v>
       </c>
       <c r="D62" t="n">
-        <v>2.06</v>
+        <v>2.17</v>
       </c>
       <c r="E62" t="n">
-        <v>2.03</v>
+        <v>2.17</v>
       </c>
       <c r="F62" t="n">
-        <v>141911.4209</v>
+        <v>44</v>
       </c>
       <c r="G62" t="n">
-        <v>2.104833333333334</v>
+        <v>2.107500000000001</v>
       </c>
       <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1994,24 +2182,27 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="C63" t="n">
-        <v>2.1</v>
+        <v>2.03</v>
       </c>
       <c r="D63" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="E63" t="n">
-        <v>2.07</v>
+        <v>2.03</v>
       </c>
       <c r="F63" t="n">
-        <v>80000</v>
+        <v>141911.4209</v>
       </c>
       <c r="G63" t="n">
-        <v>2.104000000000001</v>
+        <v>2.104833333333334</v>
       </c>
       <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2020,24 +2211,27 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="C64" t="n">
-        <v>2.18</v>
+        <v>2.1</v>
       </c>
       <c r="D64" t="n">
-        <v>2.18</v>
+        <v>2.1</v>
       </c>
       <c r="E64" t="n">
-        <v>2.18</v>
+        <v>2.07</v>
       </c>
       <c r="F64" t="n">
-        <v>11</v>
+        <v>80000</v>
       </c>
       <c r="G64" t="n">
-        <v>2.104666666666668</v>
+        <v>2.104000000000001</v>
       </c>
       <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2046,24 +2240,27 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="C65" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="D65" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="E65" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="F65" t="n">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="G65" t="n">
-        <v>2.104000000000001</v>
+        <v>2.104666666666668</v>
       </c>
       <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2084,12 +2281,15 @@
         <v>2.1</v>
       </c>
       <c r="F66" t="n">
-        <v>98540</v>
+        <v>100</v>
       </c>
       <c r="G66" t="n">
-        <v>2.104833333333334</v>
+        <v>2.104000000000001</v>
       </c>
       <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2101,21 +2301,24 @@
         <v>2.1</v>
       </c>
       <c r="C67" t="n">
-        <v>2.13</v>
+        <v>2.1</v>
       </c>
       <c r="D67" t="n">
-        <v>2.13</v>
+        <v>2.1</v>
       </c>
       <c r="E67" t="n">
         <v>2.1</v>
       </c>
       <c r="F67" t="n">
-        <v>60000</v>
+        <v>98540</v>
       </c>
       <c r="G67" t="n">
-        <v>2.106666666666668</v>
+        <v>2.104833333333334</v>
       </c>
       <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2124,24 +2327,27 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="C68" t="n">
-        <v>2.04</v>
+        <v>2.13</v>
       </c>
       <c r="D68" t="n">
-        <v>2.04</v>
+        <v>2.13</v>
       </c>
       <c r="E68" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="F68" t="n">
-        <v>12077.2532</v>
+        <v>60000</v>
       </c>
       <c r="G68" t="n">
-        <v>2.105000000000001</v>
+        <v>2.106666666666668</v>
       </c>
       <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2150,24 +2356,27 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>2.07</v>
+        <v>2.04</v>
       </c>
       <c r="C69" t="n">
-        <v>2.07</v>
+        <v>2.04</v>
       </c>
       <c r="D69" t="n">
-        <v>2.07</v>
+        <v>2.04</v>
       </c>
       <c r="E69" t="n">
-        <v>2.07</v>
+        <v>2.04</v>
       </c>
       <c r="F69" t="n">
-        <v>163260.3204</v>
+        <v>12077.2532</v>
       </c>
       <c r="G69" t="n">
-        <v>2.106000000000001</v>
+        <v>2.105000000000001</v>
       </c>
       <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2176,24 +2385,27 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>2.06</v>
+        <v>2.07</v>
       </c>
       <c r="C70" t="n">
-        <v>2.06</v>
+        <v>2.07</v>
       </c>
       <c r="D70" t="n">
-        <v>2.06</v>
+        <v>2.07</v>
       </c>
       <c r="E70" t="n">
-        <v>2.06</v>
+        <v>2.07</v>
       </c>
       <c r="F70" t="n">
-        <v>41549.7837</v>
+        <v>163260.3204</v>
       </c>
       <c r="G70" t="n">
-        <v>2.107000000000001</v>
+        <v>2.106000000000001</v>
       </c>
       <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2202,24 +2414,27 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>2.07</v>
+        <v>2.06</v>
       </c>
       <c r="C71" t="n">
-        <v>2.07</v>
+        <v>2.06</v>
       </c>
       <c r="D71" t="n">
-        <v>2.07</v>
+        <v>2.06</v>
       </c>
       <c r="E71" t="n">
-        <v>2.07</v>
+        <v>2.06</v>
       </c>
       <c r="F71" t="n">
-        <v>51901.9323</v>
+        <v>41549.7837</v>
       </c>
       <c r="G71" t="n">
-        <v>2.107166666666668</v>
+        <v>2.107000000000001</v>
       </c>
       <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2240,12 +2455,15 @@
         <v>2.07</v>
       </c>
       <c r="F72" t="n">
-        <v>104327.795</v>
+        <v>51901.9323</v>
       </c>
       <c r="G72" t="n">
-        <v>2.107333333333334</v>
+        <v>2.107166666666668</v>
       </c>
       <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2266,12 +2484,15 @@
         <v>2.07</v>
       </c>
       <c r="F73" t="n">
-        <v>21744.6266</v>
+        <v>104327.795</v>
       </c>
       <c r="G73" t="n">
-        <v>2.107666666666668</v>
+        <v>2.107333333333334</v>
       </c>
       <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2280,24 +2501,27 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>2.08</v>
+        <v>2.07</v>
       </c>
       <c r="C74" t="n">
         <v>2.07</v>
       </c>
       <c r="D74" t="n">
-        <v>2.08</v>
+        <v>2.07</v>
       </c>
       <c r="E74" t="n">
         <v>2.07</v>
       </c>
       <c r="F74" t="n">
-        <v>40000</v>
+        <v>21744.6266</v>
       </c>
       <c r="G74" t="n">
-        <v>2.108000000000001</v>
+        <v>2.107666666666668</v>
       </c>
       <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2309,21 +2533,24 @@
         <v>2.08</v>
       </c>
       <c r="C75" t="n">
-        <v>2.08</v>
+        <v>2.07</v>
       </c>
       <c r="D75" t="n">
         <v>2.08</v>
       </c>
       <c r="E75" t="n">
-        <v>2.08</v>
+        <v>2.07</v>
       </c>
       <c r="F75" t="n">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="G75" t="n">
-        <v>2.108500000000001</v>
+        <v>2.108000000000001</v>
       </c>
       <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2332,24 +2559,27 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>2.07</v>
+        <v>2.08</v>
       </c>
       <c r="C76" t="n">
-        <v>2.07</v>
+        <v>2.08</v>
       </c>
       <c r="D76" t="n">
-        <v>2.07</v>
+        <v>2.08</v>
       </c>
       <c r="E76" t="n">
-        <v>2.07</v>
+        <v>2.08</v>
       </c>
       <c r="F76" t="n">
-        <v>120435.642</v>
+        <v>20000</v>
       </c>
       <c r="G76" t="n">
-        <v>2.108666666666668</v>
+        <v>2.108500000000001</v>
       </c>
       <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2361,21 +2591,24 @@
         <v>2.07</v>
       </c>
       <c r="C77" t="n">
-        <v>2.06</v>
+        <v>2.07</v>
       </c>
       <c r="D77" t="n">
         <v>2.07</v>
       </c>
       <c r="E77" t="n">
-        <v>2.06</v>
+        <v>2.07</v>
       </c>
       <c r="F77" t="n">
-        <v>340493.8669</v>
+        <v>120435.642</v>
       </c>
       <c r="G77" t="n">
-        <v>2.108166666666668</v>
+        <v>2.108666666666668</v>
       </c>
       <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2384,24 +2617,27 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>2.06</v>
+        <v>2.07</v>
       </c>
       <c r="C78" t="n">
         <v>2.06</v>
       </c>
       <c r="D78" t="n">
-        <v>2.06</v>
+        <v>2.07</v>
       </c>
       <c r="E78" t="n">
         <v>2.06</v>
       </c>
       <c r="F78" t="n">
-        <v>37043.16</v>
+        <v>340493.8669</v>
       </c>
       <c r="G78" t="n">
-        <v>2.107666666666668</v>
+        <v>2.108166666666668</v>
       </c>
       <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2410,24 +2646,27 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="C79" t="n">
-        <v>2.03</v>
+        <v>2.06</v>
       </c>
       <c r="D79" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="E79" t="n">
-        <v>2.03</v>
+        <v>2.06</v>
       </c>
       <c r="F79" t="n">
-        <v>523272.3986</v>
+        <v>37043.16</v>
       </c>
       <c r="G79" t="n">
         <v>2.107666666666668</v>
       </c>
       <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2436,24 +2675,27 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="C80" t="n">
         <v>2.03</v>
       </c>
-      <c r="C80" t="n">
-        <v>2.1</v>
-      </c>
       <c r="D80" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="E80" t="n">
         <v>2.03</v>
       </c>
       <c r="F80" t="n">
-        <v>4604840.9048</v>
+        <v>523272.3986</v>
       </c>
       <c r="G80" t="n">
-        <v>2.108833333333334</v>
+        <v>2.107666666666668</v>
       </c>
       <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2465,21 +2707,24 @@
         <v>2.03</v>
       </c>
       <c r="C81" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="D81" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="E81" t="n">
-        <v>2.02</v>
+        <v>2.03</v>
       </c>
       <c r="F81" t="n">
-        <v>34008951.74</v>
+        <v>4604840.9048</v>
       </c>
       <c r="G81" t="n">
-        <v>2.108000000000001</v>
+        <v>2.108833333333334</v>
       </c>
       <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2488,24 +2733,27 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="C82" t="n">
-        <v>2.05</v>
+        <v>2.04</v>
       </c>
       <c r="D82" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="E82" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="F82" t="n">
-        <v>97019.23</v>
+        <v>34008951.74</v>
       </c>
       <c r="G82" t="n">
-        <v>2.108833333333334</v>
+        <v>2.108000000000001</v>
       </c>
       <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2514,24 +2762,27 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>2.01</v>
+        <v>2.05</v>
       </c>
       <c r="C83" t="n">
-        <v>2.01</v>
+        <v>2.05</v>
       </c>
       <c r="D83" t="n">
-        <v>2.01</v>
+        <v>2.05</v>
       </c>
       <c r="E83" t="n">
-        <v>2.01</v>
+        <v>2.05</v>
       </c>
       <c r="F83" t="n">
-        <v>523836.2831</v>
+        <v>97019.23</v>
       </c>
       <c r="G83" t="n">
-        <v>2.109500000000001</v>
+        <v>2.108833333333334</v>
       </c>
       <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2540,24 +2791,27 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>1.97</v>
+        <v>2.01</v>
       </c>
       <c r="C84" t="n">
-        <v>1.97</v>
+        <v>2.01</v>
       </c>
       <c r="D84" t="n">
-        <v>1.97</v>
+        <v>2.01</v>
       </c>
       <c r="E84" t="n">
-        <v>1.97</v>
+        <v>2.01</v>
       </c>
       <c r="F84" t="n">
-        <v>1485605.0382</v>
+        <v>523836.2831</v>
       </c>
       <c r="G84" t="n">
-        <v>2.109166666666668</v>
+        <v>2.109500000000001</v>
       </c>
       <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2566,24 +2820,27 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>2.07</v>
+        <v>1.97</v>
       </c>
       <c r="C85" t="n">
-        <v>2.15</v>
+        <v>1.97</v>
       </c>
       <c r="D85" t="n">
-        <v>2.15</v>
+        <v>1.97</v>
       </c>
       <c r="E85" t="n">
-        <v>2.07</v>
+        <v>1.97</v>
       </c>
       <c r="F85" t="n">
-        <v>60019</v>
+        <v>1485605.0382</v>
       </c>
       <c r="G85" t="n">
-        <v>2.111166666666668</v>
+        <v>2.109166666666668</v>
       </c>
       <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2592,24 +2849,27 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="C86" t="n">
-        <v>2.06</v>
+        <v>2.15</v>
       </c>
       <c r="D86" t="n">
-        <v>2.06</v>
+        <v>2.15</v>
       </c>
       <c r="E86" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="F86" t="n">
-        <v>304504.7349</v>
+        <v>60019</v>
       </c>
       <c r="G86" t="n">
-        <v>2.111500000000001</v>
+        <v>2.111166666666668</v>
       </c>
       <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2618,24 +2878,27 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>2.13</v>
+        <v>2.05</v>
       </c>
       <c r="C87" t="n">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="D87" t="n">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="E87" t="n">
-        <v>2.13</v>
+        <v>2.05</v>
       </c>
       <c r="F87" t="n">
-        <v>11</v>
+        <v>304504.7349</v>
       </c>
       <c r="G87" t="n">
-        <v>2.113833333333334</v>
+        <v>2.111500000000001</v>
       </c>
       <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2644,24 +2907,27 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>2.06</v>
+        <v>2.13</v>
       </c>
       <c r="C88" t="n">
-        <v>2.01</v>
+        <v>2.13</v>
       </c>
       <c r="D88" t="n">
-        <v>2.06</v>
+        <v>2.13</v>
       </c>
       <c r="E88" t="n">
-        <v>2.01</v>
+        <v>2.13</v>
       </c>
       <c r="F88" t="n">
-        <v>104654.0105</v>
+        <v>11</v>
       </c>
       <c r="G88" t="n">
-        <v>2.114000000000001</v>
+        <v>2.113833333333334</v>
       </c>
       <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2670,24 +2936,27 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="C89" t="n">
-        <v>2.08</v>
+        <v>2.01</v>
       </c>
       <c r="D89" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="E89" t="n">
-        <v>2.08</v>
+        <v>2.01</v>
       </c>
       <c r="F89" t="n">
-        <v>100000</v>
+        <v>104654.0105</v>
       </c>
       <c r="G89" t="n">
-        <v>2.115333333333334</v>
+        <v>2.114000000000001</v>
       </c>
       <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2696,24 +2965,27 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>2.09</v>
+        <v>2.08</v>
       </c>
       <c r="C90" t="n">
-        <v>2.09</v>
+        <v>2.08</v>
       </c>
       <c r="D90" t="n">
-        <v>2.09</v>
+        <v>2.08</v>
       </c>
       <c r="E90" t="n">
-        <v>2.09</v>
+        <v>2.08</v>
       </c>
       <c r="F90" t="n">
-        <v>20289.8808</v>
+        <v>100000</v>
       </c>
       <c r="G90" t="n">
-        <v>2.116833333333334</v>
+        <v>2.115333333333334</v>
       </c>
       <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2725,21 +2997,24 @@
         <v>2.09</v>
       </c>
       <c r="C91" t="n">
-        <v>2.12</v>
+        <v>2.09</v>
       </c>
       <c r="D91" t="n">
-        <v>2.12</v>
+        <v>2.09</v>
       </c>
       <c r="E91" t="n">
         <v>2.09</v>
       </c>
       <c r="F91" t="n">
-        <v>100000</v>
+        <v>20289.8808</v>
       </c>
       <c r="G91" t="n">
-        <v>2.118333333333335</v>
+        <v>2.116833333333334</v>
       </c>
       <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2748,24 +3023,27 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>2.03</v>
+        <v>2.09</v>
       </c>
       <c r="C92" t="n">
-        <v>2.03</v>
+        <v>2.12</v>
       </c>
       <c r="D92" t="n">
-        <v>2.03</v>
+        <v>2.12</v>
       </c>
       <c r="E92" t="n">
-        <v>2.03</v>
+        <v>2.09</v>
       </c>
       <c r="F92" t="n">
-        <v>66719.583</v>
+        <v>100000</v>
       </c>
       <c r="G92" t="n">
-        <v>2.118833333333335</v>
+        <v>2.118333333333335</v>
       </c>
       <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2774,24 +3052,27 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>2.12</v>
+        <v>2.03</v>
       </c>
       <c r="C93" t="n">
-        <v>2.13</v>
+        <v>2.03</v>
       </c>
       <c r="D93" t="n">
-        <v>2.13</v>
+        <v>2.03</v>
       </c>
       <c r="E93" t="n">
-        <v>2.12</v>
+        <v>2.03</v>
       </c>
       <c r="F93" t="n">
-        <v>60000</v>
+        <v>66719.583</v>
       </c>
       <c r="G93" t="n">
-        <v>2.121000000000001</v>
+        <v>2.118833333333335</v>
       </c>
       <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2800,24 +3081,27 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>2.04</v>
+        <v>2.12</v>
       </c>
       <c r="C94" t="n">
-        <v>1.96</v>
+        <v>2.13</v>
       </c>
       <c r="D94" t="n">
-        <v>2.04</v>
+        <v>2.13</v>
       </c>
       <c r="E94" t="n">
-        <v>1.96</v>
+        <v>2.12</v>
       </c>
       <c r="F94" t="n">
-        <v>290000</v>
+        <v>60000</v>
       </c>
       <c r="G94" t="n">
-        <v>2.119166666666668</v>
+        <v>2.121000000000001</v>
       </c>
       <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2826,24 +3110,27 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>2.12</v>
+        <v>2.04</v>
       </c>
       <c r="C95" t="n">
-        <v>2.13</v>
+        <v>1.96</v>
       </c>
       <c r="D95" t="n">
-        <v>2.13</v>
+        <v>2.04</v>
       </c>
       <c r="E95" t="n">
-        <v>2.12</v>
+        <v>1.96</v>
       </c>
       <c r="F95" t="n">
-        <v>131439</v>
+        <v>290000</v>
       </c>
       <c r="G95" t="n">
-        <v>2.119833333333335</v>
+        <v>2.119166666666668</v>
       </c>
       <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2852,7 +3139,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>1.96</v>
+        <v>2.12</v>
       </c>
       <c r="C96" t="n">
         <v>2.13</v>
@@ -2861,15 +3148,18 @@
         <v>2.13</v>
       </c>
       <c r="E96" t="n">
-        <v>1.96</v>
+        <v>2.12</v>
       </c>
       <c r="F96" t="n">
-        <v>45104.0273</v>
+        <v>131439</v>
       </c>
       <c r="G96" t="n">
-        <v>2.118833333333335</v>
+        <v>2.119833333333335</v>
       </c>
       <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2878,24 +3168,27 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="C97" t="n">
         <v>2.13</v>
       </c>
-      <c r="C97" t="n">
-        <v>2.14</v>
-      </c>
       <c r="D97" t="n">
-        <v>2.14</v>
+        <v>2.13</v>
       </c>
       <c r="E97" t="n">
-        <v>2.13</v>
+        <v>1.96</v>
       </c>
       <c r="F97" t="n">
-        <v>80000</v>
+        <v>45104.0273</v>
       </c>
       <c r="G97" t="n">
-        <v>2.115833333333335</v>
+        <v>2.118833333333335</v>
       </c>
       <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2904,7 +3197,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>2.14</v>
+        <v>2.13</v>
       </c>
       <c r="C98" t="n">
         <v>2.14</v>
@@ -2913,15 +3206,18 @@
         <v>2.14</v>
       </c>
       <c r="E98" t="n">
-        <v>2.14</v>
+        <v>2.13</v>
       </c>
       <c r="F98" t="n">
-        <v>1078</v>
+        <v>80000</v>
       </c>
       <c r="G98" t="n">
-        <v>2.114000000000001</v>
+        <v>2.115833333333335</v>
       </c>
       <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2942,12 +3238,15 @@
         <v>2.14</v>
       </c>
       <c r="F99" t="n">
-        <v>659</v>
+        <v>1078</v>
       </c>
       <c r="G99" t="n">
-        <v>2.111833333333334</v>
+        <v>2.114000000000001</v>
       </c>
       <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2956,24 +3255,27 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>2.13</v>
+        <v>2.14</v>
       </c>
       <c r="C100" t="n">
-        <v>2.13</v>
+        <v>2.14</v>
       </c>
       <c r="D100" t="n">
-        <v>2.13</v>
+        <v>2.14</v>
       </c>
       <c r="E100" t="n">
-        <v>2.13</v>
+        <v>2.14</v>
       </c>
       <c r="F100" t="n">
-        <v>46948.3568</v>
+        <v>659</v>
       </c>
       <c r="G100" t="n">
-        <v>2.111833333333335</v>
+        <v>2.111833333333334</v>
       </c>
       <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2985,21 +3287,24 @@
         <v>2.13</v>
       </c>
       <c r="C101" t="n">
-        <v>2.14</v>
+        <v>2.13</v>
       </c>
       <c r="D101" t="n">
-        <v>2.14</v>
+        <v>2.13</v>
       </c>
       <c r="E101" t="n">
         <v>2.13</v>
       </c>
       <c r="F101" t="n">
-        <v>63140</v>
+        <v>46948.3568</v>
       </c>
       <c r="G101" t="n">
-        <v>2.111000000000001</v>
+        <v>2.111833333333335</v>
       </c>
       <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3008,7 +3313,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>2.02</v>
+        <v>2.13</v>
       </c>
       <c r="C102" t="n">
         <v>2.14</v>
@@ -3017,15 +3322,18 @@
         <v>2.14</v>
       </c>
       <c r="E102" t="n">
-        <v>2.02</v>
+        <v>2.13</v>
       </c>
       <c r="F102" t="n">
-        <v>127700.8679</v>
+        <v>63140</v>
       </c>
       <c r="G102" t="n">
-        <v>2.1105</v>
+        <v>2.111000000000001</v>
       </c>
       <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3034,24 +3342,27 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="C103" t="n">
         <v>2.14</v>
       </c>
-      <c r="C103" t="n">
-        <v>2.15</v>
-      </c>
       <c r="D103" t="n">
-        <v>2.15</v>
+        <v>2.14</v>
       </c>
       <c r="E103" t="n">
-        <v>2.14</v>
+        <v>2.02</v>
       </c>
       <c r="F103" t="n">
-        <v>217867.365</v>
+        <v>127700.8679</v>
       </c>
       <c r="G103" t="n">
-        <v>2.109666666666667</v>
+        <v>2.1105</v>
       </c>
       <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3060,24 +3371,27 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="C104" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="D104" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="E104" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="F104" t="n">
-        <v>218193.4600954129</v>
+        <v>217867.365</v>
       </c>
       <c r="G104" t="n">
-        <v>2.110666666666667</v>
+        <v>2.109666666666667</v>
       </c>
       <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3086,7 +3400,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="C105" t="n">
         <v>2.18</v>
@@ -3095,15 +3409,18 @@
         <v>2.18</v>
       </c>
       <c r="E105" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="F105" t="n">
-        <v>33068.3486</v>
+        <v>218193.4600954129</v>
       </c>
       <c r="G105" t="n">
-        <v>2.1105</v>
+        <v>2.110666666666667</v>
       </c>
       <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3115,21 +3432,24 @@
         <v>2.18</v>
       </c>
       <c r="C106" t="n">
-        <v>2.17</v>
+        <v>2.18</v>
       </c>
       <c r="D106" t="n">
         <v>2.18</v>
       </c>
       <c r="E106" t="n">
-        <v>2.02</v>
+        <v>2.18</v>
       </c>
       <c r="F106" t="n">
-        <v>1320</v>
+        <v>33068.3486</v>
       </c>
       <c r="G106" t="n">
-        <v>2.109833333333333</v>
+        <v>2.1105</v>
       </c>
       <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3138,24 +3458,27 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>2.05</v>
+        <v>2.18</v>
       </c>
       <c r="C107" t="n">
-        <v>2.18</v>
+        <v>2.17</v>
       </c>
       <c r="D107" t="n">
         <v>2.18</v>
       </c>
       <c r="E107" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="F107" t="n">
-        <v>565</v>
+        <v>1320</v>
       </c>
       <c r="G107" t="n">
-        <v>2.108166666666667</v>
+        <v>2.109833333333333</v>
       </c>
       <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3164,24 +3487,27 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>2.17</v>
+        <v>2.05</v>
       </c>
       <c r="C108" t="n">
-        <v>2.17</v>
+        <v>2.18</v>
       </c>
       <c r="D108" t="n">
-        <v>2.17</v>
+        <v>2.18</v>
       </c>
       <c r="E108" t="n">
-        <v>2.17</v>
+        <v>2.05</v>
       </c>
       <c r="F108" t="n">
-        <v>544</v>
+        <v>565</v>
       </c>
       <c r="G108" t="n">
         <v>2.108166666666667</v>
       </c>
       <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3190,24 +3516,27 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>2.18</v>
+        <v>2.17</v>
       </c>
       <c r="C109" t="n">
-        <v>2.14</v>
+        <v>2.17</v>
       </c>
       <c r="D109" t="n">
-        <v>2.18</v>
+        <v>2.17</v>
       </c>
       <c r="E109" t="n">
-        <v>2.14</v>
+        <v>2.17</v>
       </c>
       <c r="F109" t="n">
-        <v>33</v>
+        <v>544</v>
       </c>
       <c r="G109" t="n">
-        <v>2.109666666666667</v>
+        <v>2.108166666666667</v>
       </c>
       <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3216,24 +3545,27 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>2.17</v>
+        <v>2.18</v>
       </c>
       <c r="C110" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="D110" t="n">
         <v>2.18</v>
       </c>
       <c r="E110" t="n">
-        <v>2.17</v>
+        <v>2.14</v>
       </c>
       <c r="F110" t="n">
-        <v>187846.0854</v>
+        <v>33</v>
       </c>
       <c r="G110" t="n">
-        <v>2.109166666666666</v>
+        <v>2.109666666666667</v>
       </c>
       <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3245,21 +3577,24 @@
         <v>2.17</v>
       </c>
       <c r="C111" t="n">
-        <v>2.17</v>
+        <v>2.18</v>
       </c>
       <c r="D111" t="n">
-        <v>2.17</v>
+        <v>2.18</v>
       </c>
       <c r="E111" t="n">
         <v>2.17</v>
       </c>
       <c r="F111" t="n">
-        <v>17833.5944</v>
+        <v>187846.0854</v>
       </c>
       <c r="G111" t="n">
-        <v>2.109666666666667</v>
+        <v>2.109166666666666</v>
       </c>
       <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3268,24 +3603,27 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>2.15</v>
+        <v>2.17</v>
       </c>
       <c r="C112" t="n">
-        <v>2.15</v>
+        <v>2.17</v>
       </c>
       <c r="D112" t="n">
-        <v>2.15</v>
+        <v>2.17</v>
       </c>
       <c r="E112" t="n">
-        <v>2.15</v>
+        <v>2.17</v>
       </c>
       <c r="F112" t="n">
-        <v>10</v>
+        <v>17833.5944</v>
       </c>
       <c r="G112" t="n">
-        <v>2.109166666666666</v>
+        <v>2.109666666666667</v>
       </c>
       <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3294,24 +3632,27 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>2.17</v>
+        <v>2.15</v>
       </c>
       <c r="C113" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="D113" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="E113" t="n">
-        <v>2.17</v>
+        <v>2.15</v>
       </c>
       <c r="F113" t="n">
-        <v>423.5023</v>
+        <v>10</v>
       </c>
       <c r="G113" t="n">
-        <v>2.109666666666667</v>
+        <v>2.109166666666666</v>
       </c>
       <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3323,21 +3664,24 @@
         <v>2.17</v>
       </c>
       <c r="C114" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="D114" t="n">
-        <v>2.17</v>
+        <v>2.18</v>
       </c>
       <c r="E114" t="n">
-        <v>2.16</v>
+        <v>2.17</v>
       </c>
       <c r="F114" t="n">
-        <v>217647.9764</v>
+        <v>423.5023</v>
       </c>
       <c r="G114" t="n">
-        <v>2.109166666666666</v>
+        <v>2.109666666666667</v>
       </c>
       <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3346,24 +3690,27 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>2.15</v>
+        <v>2.17</v>
       </c>
       <c r="C115" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="D115" t="n">
-        <v>2.15</v>
+        <v>2.17</v>
       </c>
       <c r="E115" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="F115" t="n">
-        <v>255423.637</v>
+        <v>217647.9764</v>
       </c>
       <c r="G115" t="n">
-        <v>2.108333333333333</v>
+        <v>2.109166666666666</v>
       </c>
       <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3372,24 +3719,27 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="C116" t="n">
         <v>2.12</v>
       </c>
       <c r="D116" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="E116" t="n">
         <v>2.12</v>
       </c>
       <c r="F116" t="n">
-        <v>33068.3486</v>
+        <v>255423.637</v>
       </c>
       <c r="G116" t="n">
-        <v>2.107166666666666</v>
+        <v>2.108333333333333</v>
       </c>
       <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3398,24 +3748,27 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="C117" t="n">
-        <v>2.17</v>
+        <v>2.12</v>
       </c>
       <c r="D117" t="n">
-        <v>2.17</v>
+        <v>2.12</v>
       </c>
       <c r="E117" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="F117" t="n">
-        <v>40630</v>
+        <v>33068.3486</v>
       </c>
       <c r="G117" t="n">
-        <v>2.106999999999999</v>
+        <v>2.107166666666666</v>
       </c>
       <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3424,7 +3777,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>2.17</v>
+        <v>2.15</v>
       </c>
       <c r="C118" t="n">
         <v>2.17</v>
@@ -3433,15 +3786,18 @@
         <v>2.17</v>
       </c>
       <c r="E118" t="n">
-        <v>2.17</v>
+        <v>2.15</v>
       </c>
       <c r="F118" t="n">
-        <v>20026.4976</v>
+        <v>40630</v>
       </c>
       <c r="G118" t="n">
-        <v>2.107499999999999</v>
+        <v>2.106999999999999</v>
       </c>
       <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3462,12 +3818,15 @@
         <v>2.17</v>
       </c>
       <c r="F119" t="n">
-        <v>7573</v>
+        <v>20026.4976</v>
       </c>
       <c r="G119" t="n">
         <v>2.107499999999999</v>
       </c>
       <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3488,532 +3847,15 @@
         <v>2.17</v>
       </c>
       <c r="F120" t="n">
-        <v>9730.4874</v>
+        <v>7573</v>
       </c>
       <c r="G120" t="n">
-        <v>2.108499999999999</v>
+        <v>2.107499999999999</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="C121" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="D121" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="E121" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="F121" t="n">
-        <v>25499.3926</v>
-      </c>
-      <c r="G121" t="n">
-        <v>2.108499999999999</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="C122" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="D122" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="E122" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="F122" t="n">
-        <v>123866.8941</v>
-      </c>
-      <c r="G122" t="n">
-        <v>2.110833333333332</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="C123" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="D123" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="E123" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="F123" t="n">
-        <v>69531</v>
-      </c>
-      <c r="G123" t="n">
-        <v>2.112166666666666</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="C124" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="D124" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="E124" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="F124" t="n">
-        <v>11</v>
-      </c>
-      <c r="G124" t="n">
-        <v>2.111666666666666</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="C125" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="D125" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="E125" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="F125" t="n">
-        <v>873991.8349</v>
-      </c>
-      <c r="G125" t="n">
-        <v>2.112833333333333</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="C126" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="D126" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="E126" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="F126" t="n">
-        <v>98994</v>
-      </c>
-      <c r="G126" t="n">
-        <v>2.113999999999999</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="C127" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="D127" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="E127" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="F127" t="n">
-        <v>137813.1824</v>
-      </c>
-      <c r="G127" t="n">
-        <v>2.114333333333333</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="C128" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="D128" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="E128" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="F128" t="n">
-        <v>97841</v>
-      </c>
-      <c r="G128" t="n">
-        <v>2.116666666666666</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="C129" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="D129" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="E129" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="F129" t="n">
-        <v>105725.8135</v>
-      </c>
-      <c r="G129" t="n">
-        <v>2.118333333333333</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="C130" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="D130" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="E130" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="F130" t="n">
-        <v>77660.3616</v>
-      </c>
-      <c r="G130" t="n">
-        <v>2.120166666666666</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="C131" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="D131" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="E131" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="F131" t="n">
-        <v>59415.8469</v>
-      </c>
-      <c r="G131" t="n">
-        <v>2.121333333333332</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="C132" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="D132" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="E132" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="F132" t="n">
-        <v>100000</v>
-      </c>
-      <c r="G132" t="n">
-        <v>2.122499999999999</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="C133" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="D133" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="E133" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="F133" t="n">
-        <v>23534</v>
-      </c>
-      <c r="G133" t="n">
-        <v>2.123999999999999</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="C134" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="D134" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="E134" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="F134" t="n">
-        <v>19393.7097</v>
-      </c>
-      <c r="G134" t="n">
-        <v>2.125499999999999</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="C135" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="D135" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="E135" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="F135" t="n">
-        <v>76705</v>
-      </c>
-      <c r="G135" t="n">
-        <v>2.126833333333332</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="C136" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="D136" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="E136" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="F136" t="n">
-        <v>60000</v>
-      </c>
-      <c r="G136" t="n">
-        <v>2.128333333333333</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="C137" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="D137" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="E137" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="F137" t="n">
-        <v>60728</v>
-      </c>
-      <c r="G137" t="n">
-        <v>2.129999999999999</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="C138" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="D138" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="E138" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="F138" t="n">
-        <v>40000</v>
-      </c>
-      <c r="G138" t="n">
-        <v>2.130833333333333</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="C139" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="D139" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="E139" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="F139" t="n">
-        <v>158699.0321</v>
-      </c>
-      <c r="G139" t="n">
-        <v>2.132166666666666</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="C140" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="D140" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="E140" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="F140" t="n">
-        <v>41928.5492</v>
-      </c>
-      <c r="G140" t="n">
-        <v>2.132333333333333</v>
-      </c>
-      <c r="H140" t="n">
+      <c r="I120" t="n">
         <v>0</v>
       </c>
     </row>
